--- a/Data/Polls/federal.xlsx
+++ b/Data/Polls/federal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="28">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -87,14 +87,33 @@
   <si>
     <t xml:space="preserve">BC</t>
   </si>
+  <si>
+    <t xml:space="preserve">CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abacus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainstreet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipsos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -161,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,6 +190,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -191,15 +214,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I58" activeCellId="0" sqref="I58"/>
+      <selection pane="bottomLeft" activeCell="G169" activeCellId="0" sqref="G169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -238,7 +261,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -264,7 +287,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -290,7 +313,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -316,7 +339,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -339,7 +362,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -365,7 +388,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -391,7 +414,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
@@ -417,7 +440,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -443,7 +466,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
@@ -469,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -495,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -521,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -547,7 +570,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
@@ -573,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
@@ -599,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
@@ -625,7 +648,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
@@ -648,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
@@ -674,7 +697,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -700,7 +723,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>19</v>
@@ -726,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
@@ -752,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
@@ -778,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>19</v>
@@ -801,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>19</v>
@@ -827,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>19</v>
@@ -853,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
@@ -879,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
@@ -905,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
@@ -931,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
@@ -954,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
@@ -980,7 +1003,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
@@ -1006,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>21</v>
@@ -1032,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>21</v>
@@ -1058,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>21</v>
@@ -1084,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>21</v>
@@ -1107,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>21</v>
@@ -1133,7 +1156,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>44287</v>
+        <v>44200</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>21</v>
@@ -1153,155 +1176,158 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>72</v>
+      <c r="G38" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1506</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1506</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>72</v>
+      <c r="G39" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1506</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>1506</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="I40" s="1" t="n">
-        <v>72</v>
+      <c r="G40" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1506</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>1506</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>72</v>
+      <c r="G41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>1506</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>1506</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="I42" s="1" t="n">
-        <v>72</v>
+      <c r="G42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1506</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>1506</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="I43" s="1" t="n">
-        <v>72</v>
+      <c r="G43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1506</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>1506</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,19 +1341,19 @@
         <v>44179</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>292</v>
+        <v>66</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>338</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,19 +1367,19 @@
         <v>44179</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>292</v>
+        <v>66</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>338</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,19 +1393,19 @@
         <v>44179</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>292</v>
+        <v>66</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>338</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,19 +1419,16 @@
         <v>44179</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="H47" s="1" t="n">
-        <v>292</v>
+        <v>66</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>338</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,19 +1442,19 @@
         <v>44179</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>292</v>
+        <v>66</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>338</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,19 +1468,19 @@
         <v>44179</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>292</v>
+        <v>66</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>338</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,19 +1494,19 @@
         <v>44179</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>476</v>
+        <v>292</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>499</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,19 +1520,19 @@
         <v>44179</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>477</v>
+        <v>292</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>500</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,19 +1546,19 @@
         <v>44179</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>478</v>
+        <v>292</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>501</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,16 +1572,19 @@
         <v>44179</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G53" s="1" t="n">
+        <v>30</v>
+      </c>
       <c r="H53" s="1" t="n">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>502</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,19 +1598,19 @@
         <v>44179</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>480</v>
+        <v>292</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>503</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,19 +1624,19 @@
         <v>44179</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>481</v>
+        <v>292</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>504</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,19 +1650,19 @@
         <v>44179</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>103</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,19 +1676,19 @@
         <v>44179</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>78</v>
+        <v>477</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>103</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,19 +1702,19 @@
         <v>44179</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>78</v>
+        <v>478</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,16 +1728,16 @@
         <v>44179</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>78</v>
+        <v>479</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>103</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,19 +1751,19 @@
         <v>44179</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>103</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,19 +1777,19 @@
         <v>44179</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>103</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,19 +1803,19 @@
         <v>44179</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,19 +1829,19 @@
         <v>44179</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,19 +1855,19 @@
         <v>44179</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,16 +1881,16 @@
         <v>44179</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,19 +1904,19 @@
         <v>44179</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,19 +1930,19 @@
         <v>44179</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,19 +1956,19 @@
         <v>44179</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,19 +1982,19 @@
         <v>44179</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,19 +2008,19 @@
         <v>44179</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,16 +2034,16 @@
         <v>44179</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,19 +2057,19 @@
         <v>44179</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,7 +2083,7 @@
         <v>44179</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>16</v>
@@ -2066,10 +2092,2777 @@
         <v>1</v>
       </c>
       <c r="H73" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="I73" s="1" t="n">
+      <c r="I79" s="1" t="n">
         <v>132</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>1528</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>1528</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>1528</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>1528</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>1528</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>1528</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="1" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="1" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H113" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="1" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="H114" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="1" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H115" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="1" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H117" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H118" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H119" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="1" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="H120" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="1" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="H121" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="1" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H122" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H124" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H125" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H126" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="1" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="H127" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="1" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="H128" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="1" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H129" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="1" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H131" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H132" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H133" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="H134" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="1" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="H135" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H136" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="I136" s="1" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="1" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H137" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="I137" s="1" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="1" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H138" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="I138" s="1" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G139" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H139" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="I139" s="1" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" s="1" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H140" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="I140" s="1" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G146" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="3" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G177" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G185" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I185" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I187" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C189" s="3" t="n">
+        <v>44202</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Polls/federal.xlsx
+++ b/Data/Polls/federal.xlsx
@@ -110,10 +110,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -180,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,10 +189,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,12 +212,12 @@
   <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G169" activeCellId="0" sqref="G169"/>
+      <selection pane="bottomLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1685,10 +1680,10 @@
         <v>28</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,10 +1706,10 @@
         <v>22</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,10 +1729,10 @@
         <v>14</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,10 +1755,10 @@
         <v>7</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,10 +1781,10 @@
         <v>2</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,10 +2139,10 @@
         <v>23</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,10 +2165,10 @@
         <v>43</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,10 +2188,10 @@
         <v>14</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,10 +2214,10 @@
         <v>4</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,10 +2240,10 @@
         <v>1</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,7 +2565,7 @@
       <c r="B92" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="3" t="n">
+      <c r="C92" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -2596,7 +2591,7 @@
       <c r="B93" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="3" t="n">
+      <c r="C93" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -2622,7 +2617,7 @@
       <c r="B94" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="3" t="n">
+      <c r="C94" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -2648,7 +2643,7 @@
       <c r="B95" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="3" t="n">
+      <c r="C95" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -2671,7 +2666,7 @@
       <c r="B96" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="3" t="n">
+      <c r="C96" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -2697,7 +2692,7 @@
       <c r="B97" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="3" t="n">
+      <c r="C97" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -2723,7 +2718,7 @@
       <c r="B98" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="3" t="n">
+      <c r="C98" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -2749,7 +2744,7 @@
       <c r="B99" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C99" s="3" t="n">
+      <c r="C99" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2775,7 +2770,7 @@
       <c r="B100" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="3" t="n">
+      <c r="C100" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2801,7 +2796,7 @@
       <c r="B101" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="3" t="n">
+      <c r="C101" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2827,7 +2822,7 @@
       <c r="B102" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C102" s="3" t="n">
+      <c r="C102" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -2853,7 +2848,7 @@
       <c r="B103" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C103" s="3" t="n">
+      <c r="C103" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -2879,7 +2874,7 @@
       <c r="B104" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C104" s="3" t="n">
+      <c r="C104" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -2905,7 +2900,7 @@
       <c r="B105" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="3" t="n">
+      <c r="C105" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -2931,7 +2926,7 @@
       <c r="B106" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C106" s="3" t="n">
+      <c r="C106" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -2957,7 +2952,7 @@
       <c r="B107" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C107" s="3" t="n">
+      <c r="C107" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -2983,7 +2978,7 @@
       <c r="B108" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="3" t="n">
+      <c r="C108" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -3009,7 +3004,7 @@
       <c r="B109" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="3" t="n">
+      <c r="C109" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -3032,7 +3027,7 @@
       <c r="B110" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="3" t="n">
+      <c r="C110" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -3058,7 +3053,7 @@
       <c r="B111" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="3" t="n">
+      <c r="C111" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -3084,7 +3079,7 @@
       <c r="B112" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C112" s="3" t="n">
+      <c r="C112" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -3110,7 +3105,7 @@
       <c r="B113" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="3" t="n">
+      <c r="C113" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -3136,7 +3131,7 @@
       <c r="B114" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="3" t="n">
+      <c r="C114" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -3162,7 +3157,7 @@
       <c r="B115" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C115" s="3" t="n">
+      <c r="C115" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -3188,7 +3183,7 @@
       <c r="B116" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C116" s="3" t="n">
+      <c r="C116" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -3211,7 +3206,7 @@
       <c r="B117" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C117" s="3" t="n">
+      <c r="C117" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -3237,7 +3232,7 @@
       <c r="B118" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C118" s="3" t="n">
+      <c r="C118" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -3263,7 +3258,7 @@
       <c r="B119" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C119" s="3" t="n">
+      <c r="C119" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -3289,7 +3284,7 @@
       <c r="B120" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C120" s="3" t="n">
+      <c r="C120" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -3315,7 +3310,7 @@
       <c r="B121" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C121" s="3" t="n">
+      <c r="C121" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -3341,7 +3336,7 @@
       <c r="B122" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C122" s="3" t="n">
+      <c r="C122" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -3367,7 +3362,7 @@
       <c r="B123" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C123" s="3" t="n">
+      <c r="C123" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -3390,7 +3385,7 @@
       <c r="B124" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C124" s="3" t="n">
+      <c r="C124" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -3416,7 +3411,7 @@
       <c r="B125" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C125" s="3" t="n">
+      <c r="C125" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -3442,7 +3437,7 @@
       <c r="B126" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C126" s="3" t="n">
+      <c r="C126" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -3468,7 +3463,7 @@
       <c r="B127" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C127" s="3" t="n">
+      <c r="C127" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -3494,7 +3489,7 @@
       <c r="B128" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C128" s="3" t="n">
+      <c r="C128" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -3520,7 +3515,7 @@
       <c r="B129" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C129" s="3" t="n">
+      <c r="C129" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -3546,7 +3541,7 @@
       <c r="B130" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C130" s="3" t="n">
+      <c r="C130" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -3569,7 +3564,7 @@
       <c r="B131" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C131" s="3" t="n">
+      <c r="C131" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -3595,7 +3590,7 @@
       <c r="B132" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C132" s="3" t="n">
+      <c r="C132" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -3621,7 +3616,7 @@
       <c r="B133" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C133" s="3" t="n">
+      <c r="C133" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -3647,7 +3642,7 @@
       <c r="B134" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C134" s="3" t="n">
+      <c r="C134" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -3673,7 +3668,7 @@
       <c r="B135" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C135" s="3" t="n">
+      <c r="C135" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -3699,7 +3694,7 @@
       <c r="B136" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C136" s="3" t="n">
+      <c r="C136" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -3725,7 +3720,7 @@
       <c r="B137" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C137" s="3" t="n">
+      <c r="C137" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -3751,7 +3746,7 @@
       <c r="B138" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C138" s="3" t="n">
+      <c r="C138" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -3777,7 +3772,7 @@
       <c r="B139" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C139" s="3" t="n">
+      <c r="C139" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -3803,7 +3798,7 @@
       <c r="B140" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C140" s="3" t="n">
+      <c r="C140" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -3829,7 +3824,7 @@
       <c r="B141" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C141" s="3" t="n">
+      <c r="C141" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -3855,7 +3850,7 @@
       <c r="B142" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C142" s="3" t="n">
+      <c r="C142" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -3881,7 +3876,7 @@
       <c r="B143" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C143" s="3" t="n">
+      <c r="C143" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -3907,7 +3902,7 @@
       <c r="B144" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C144" s="3" t="n">
+      <c r="C144" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -3933,7 +3928,7 @@
       <c r="B145" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C145" s="3" t="n">
+      <c r="C145" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -3959,7 +3954,7 @@
       <c r="B146" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C146" s="3" t="n">
+      <c r="C146" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D146" s="1" t="s">
@@ -3985,7 +3980,7 @@
       <c r="B147" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C147" s="3" t="n">
+      <c r="C147" s="2" t="n">
         <v>44182</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -4011,7 +4006,7 @@
       <c r="B148" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="3" t="n">
+      <c r="C148" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D148" s="0" t="s">
@@ -4031,7 +4026,7 @@
       <c r="B149" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="3" t="n">
+      <c r="C149" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D149" s="0" t="s">
@@ -4051,7 +4046,7 @@
       <c r="B150" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="3" t="n">
+      <c r="C150" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D150" s="0" t="s">
@@ -4071,7 +4066,7 @@
       <c r="B151" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C151" s="3" t="n">
+      <c r="C151" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D151" s="0" t="s">
@@ -4088,7 +4083,7 @@
       <c r="B152" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="3" t="n">
+      <c r="C152" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D152" s="0" t="s">
@@ -4108,7 +4103,7 @@
       <c r="B153" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="3" t="n">
+      <c r="C153" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D153" s="0" t="s">
@@ -4128,7 +4123,7 @@
       <c r="B154" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="3" t="n">
+      <c r="C154" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D154" s="0" t="s">
@@ -4148,7 +4143,7 @@
       <c r="B155" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C155" s="3" t="n">
+      <c r="C155" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D155" s="0" t="s">
@@ -4168,7 +4163,7 @@
       <c r="B156" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C156" s="3" t="n">
+      <c r="C156" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D156" s="0" t="s">
@@ -4188,7 +4183,7 @@
       <c r="B157" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="3" t="n">
+      <c r="C157" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D157" s="0" t="s">
@@ -4208,7 +4203,7 @@
       <c r="B158" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C158" s="3" t="n">
+      <c r="C158" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D158" s="0" t="s">
@@ -4228,7 +4223,7 @@
       <c r="B159" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C159" s="3" t="n">
+      <c r="C159" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D159" s="0" t="s">
@@ -4248,7 +4243,7 @@
       <c r="B160" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C160" s="3" t="n">
+      <c r="C160" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D160" s="0" t="s">
@@ -4268,7 +4263,7 @@
       <c r="B161" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C161" s="3" t="n">
+      <c r="C161" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D161" s="0" t="s">
@@ -4288,7 +4283,7 @@
       <c r="B162" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C162" s="3" t="n">
+      <c r="C162" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D162" s="0" t="s">
@@ -4308,7 +4303,7 @@
       <c r="B163" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C163" s="3" t="n">
+      <c r="C163" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D163" s="0" t="s">
@@ -4325,7 +4320,7 @@
       <c r="B164" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C164" s="3" t="n">
+      <c r="C164" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D164" s="0" t="s">
@@ -4345,7 +4340,7 @@
       <c r="B165" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C165" s="3" t="n">
+      <c r="C165" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D165" s="0" t="s">
@@ -4365,7 +4360,7 @@
       <c r="B166" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C166" s="3" t="n">
+      <c r="C166" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -4385,7 +4380,7 @@
       <c r="B167" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C167" s="3" t="n">
+      <c r="C167" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -4405,7 +4400,7 @@
       <c r="B168" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C168" s="3" t="n">
+      <c r="C168" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -4425,7 +4420,7 @@
       <c r="B169" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C169" s="3" t="n">
+      <c r="C169" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -4442,7 +4437,7 @@
       <c r="B170" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C170" s="3" t="n">
+      <c r="C170" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -4462,7 +4457,7 @@
       <c r="B171" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C171" s="3" t="n">
+      <c r="C171" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -4482,7 +4477,7 @@
       <c r="B172" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C172" s="3" t="n">
+      <c r="C172" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -4502,7 +4497,7 @@
       <c r="B173" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C173" s="3" t="n">
+      <c r="C173" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -4522,7 +4517,7 @@
       <c r="B174" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C174" s="3" t="n">
+      <c r="C174" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -4542,7 +4537,7 @@
       <c r="B175" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C175" s="3" t="n">
+      <c r="C175" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -4559,7 +4554,7 @@
       <c r="B176" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C176" s="3" t="n">
+      <c r="C176" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -4579,7 +4574,7 @@
       <c r="B177" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C177" s="3" t="n">
+      <c r="C177" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -4599,7 +4594,7 @@
       <c r="B178" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C178" s="3" t="n">
+      <c r="C178" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -4619,7 +4614,7 @@
       <c r="B179" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C179" s="3" t="n">
+      <c r="C179" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -4639,7 +4634,7 @@
       <c r="B180" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C180" s="3" t="n">
+      <c r="C180" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -4659,7 +4654,7 @@
       <c r="B181" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C181" s="3" t="n">
+      <c r="C181" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -4676,7 +4671,7 @@
       <c r="B182" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C182" s="3" t="n">
+      <c r="C182" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -4696,7 +4691,7 @@
       <c r="B183" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C183" s="3" t="n">
+      <c r="C183" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -4716,7 +4711,7 @@
       <c r="B184" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C184" s="3" t="n">
+      <c r="C184" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -4742,7 +4737,7 @@
       <c r="B185" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C185" s="3" t="n">
+      <c r="C185" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -4768,7 +4763,7 @@
       <c r="B186" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C186" s="3" t="n">
+      <c r="C186" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -4794,7 +4789,7 @@
       <c r="B187" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C187" s="3" t="n">
+      <c r="C187" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -4820,7 +4815,7 @@
       <c r="B188" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C188" s="3" t="n">
+      <c r="C188" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -4846,7 +4841,7 @@
       <c r="B189" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C189" s="3" t="n">
+      <c r="C189" s="2" t="n">
         <v>44202</v>
       </c>
       <c r="D189" s="1" t="s">

--- a/Data/Polls/federal.xlsx
+++ b/Data/Polls/federal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="28">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -209,15 +209,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
+      <selection pane="bottomLeft" activeCell="H85" activeCellId="0" sqref="H85:I85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1186,13 +1186,13 @@
         <v>11</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1506</v>
+        <v>1238</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>1506</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,13 +1212,13 @@
         <v>12</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1506</v>
+        <v>1238</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>1506</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,13 +1238,13 @@
         <v>13</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1506</v>
+        <v>1238</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>1506</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,13 +1264,13 @@
         <v>14</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1506</v>
+        <v>1238</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>1506</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,10 +1293,10 @@
         <v>6</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1506</v>
+        <v>1238</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>1506</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1319,10 +1319,10 @@
         <v>2</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>1506</v>
+        <v>1238</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>1506</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,13 +2263,13 @@
         <v>11</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1528</v>
+        <v>1223</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>1528</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,13 +2289,13 @@
         <v>12</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>1528</v>
+        <v>1223</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>1528</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,13 +2315,13 @@
         <v>13</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1528</v>
+        <v>1223</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>1528</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,13 +2341,13 @@
         <v>14</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>1528</v>
+        <v>1223</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>1528</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,13 +2367,13 @@
         <v>15</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>1528</v>
+        <v>1223</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>1528</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,10 +2396,10 @@
         <v>2</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>1528</v>
+        <v>1223</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>1528</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4858,6 +4858,971 @@
       </c>
       <c r="I189" s="0" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G190" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G196" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G197" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G199" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G200" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G202" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C203" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G204" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G206" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C208" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G208" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G209" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C210" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G210" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G211" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C213" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G213" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C215" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G215" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G216" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G218" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G219" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G222" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G223" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G224" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G225" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G227" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G229" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G230" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G231" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G232" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C233" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G233" s="1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C235" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G235" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C236" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G236" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G237" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
